--- a/dfGlob.xlsx
+++ b/dfGlob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q651"/>
+  <dimension ref="A1:Q653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29611,41 +29611,6 @@
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId3"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="3600450"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Arica y Parinacota (Millones de Pesos).png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
           &lt;a:blip r:embed="rId5"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
@@ -29665,7 +29630,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr">
+      <c r="D363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29677,11 +29642,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Atacama (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Arica y Parinacota (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId7"/&gt;
+          &lt;a:blip r:embed="rId8"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -29700,7 +29665,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr">
+      <c r="E363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29712,42 +29677,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Aysén (Millones de Pesos).png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId9"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="3600450"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, el Bío-Bío (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Atacama (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -29770,7 +29700,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
+      <c r="F363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29782,11 +29712,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Coquimbo (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Aysén (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId13"/&gt;
+          &lt;a:blip r:embed="rId14"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -29805,7 +29735,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr">
+      <c r="G363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29817,42 +29747,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, O'Higgins (Millones de Pesos).png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId15"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="3600450"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="J363" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Los Lagos (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, el Bío-Bío (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -29875,7 +29770,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="K363" t="inlineStr">
+      <c r="H363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29887,11 +29782,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Los Ríos (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Coquimbo (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId19"/&gt;
+          &lt;a:blip r:embed="rId20"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -29910,7 +29805,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="L363" t="inlineStr">
+      <c r="I363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29922,42 +29817,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Magallanes (Millones de Pesos).png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId21"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="3600450"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, el Maule (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, O'Higgins (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -29980,7 +29840,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="N363" t="inlineStr">
+      <c r="J363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -29992,11 +29852,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, la R. Metropolitana (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Los Lagos (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId25"/&gt;
+          &lt;a:blip r:embed="rId26"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -30015,7 +29875,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="O363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="3600450"/&gt;
@@ -30027,42 +29887,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, el Ñuble (Millones de Pesos).png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId27"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="3600450"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="P363" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Rubros más transados, Tarapacá (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Los Ríos (Millones de Pesos).png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -30085,6 +29910,181 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Magallanes (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId32"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3600450"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, el Maule (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId35"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3600450"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, la R. Metropolitana (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId38"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3600450"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, el Ñuble (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId41"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3600450"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3600450"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Rubros más transados, Tarapacá (Millones de Pesos).png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId44"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3600450"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
       <c r="Q363" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
@@ -30101,7 +30101,7 @@
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId31"/&gt;
+          &lt;a:blip r:embed="rId47"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -52695,41 +52695,6 @@
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId4"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="5760720"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Arica y Parinacota.png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
           &lt;a:blip r:embed="rId6"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
@@ -52749,7 +52714,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="E639" t="inlineStr">
+      <c r="D639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -52761,11 +52726,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Atacama.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Arica y Parinacota.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId8"/&gt;
+          &lt;a:blip r:embed="rId9"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -52784,7 +52749,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="F639" t="inlineStr">
+      <c r="E639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -52796,42 +52761,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Aysén.png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId10"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="5760720"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Bío-Bío.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Atacama.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -52854,7 +52784,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
+      <c r="F639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -52866,11 +52796,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Coquimbo.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Aysén.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId14"/&gt;
+          &lt;a:blip r:embed="rId15"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -52889,7 +52819,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="I639" t="inlineStr">
+      <c r="G639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -52901,42 +52831,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, O'Higgins.png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId16"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="5760720"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="J639" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Los Lagos.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Bío-Bío.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -52959,7 +52854,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="K639" t="inlineStr">
+      <c r="H639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -52971,11 +52866,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Los Ríos.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Coquimbo.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId20"/&gt;
+          &lt;a:blip r:embed="rId21"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -52994,7 +52889,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="L639" t="inlineStr">
+      <c r="I639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -53006,42 +52901,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Magallanes.png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId22"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="5760720"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="M639" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Maule.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, O'Higgins.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -53064,7 +52924,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="N639" t="inlineStr">
+      <c r="J639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -53076,11 +52936,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, la R. Metropolitana.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Los Lagos.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId26"/&gt;
+          &lt;a:blip r:embed="rId27"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -53099,7 +52959,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="O639" t="inlineStr">
+      <c r="K639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -53111,42 +52971,7 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Ñuble.png"/&gt;
-          &lt;pic:cNvPicPr/&gt;
-        &lt;/pic:nvPicPr&gt;
-        &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId28"/&gt;
-          &lt;a:stretch&gt;
-            &lt;a:fillRect/&gt;
-          &lt;/a:stretch&gt;
-        &lt;/pic:blipFill&gt;
-        &lt;pic:spPr&gt;
-          &lt;a:xfrm&gt;
-            &lt;a:off x="0" y="0"/&gt;
-            &lt;a:ext cx="6400800" cy="5760720"/&gt;
-          &lt;/a:xfrm&gt;
-          &lt;a:prstGeom prst="rect"/&gt;
-        &lt;/pic:spPr&gt;
-      &lt;/pic:pic&gt;
-    &lt;/a:graphicData&gt;
-  &lt;/a:graphic&gt;
-&lt;/wp:inline&gt;
-&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
-        </is>
-      </c>
-      <c r="P639" t="inlineStr">
-        <is>
-          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
-  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
-  &lt;wp:docPr id="1" name="Picture 1"/&gt;
-  &lt;wp:cNvGraphicFramePr&gt;
-    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
-  &lt;/wp:cNvGraphicFramePr&gt;
-  &lt;a:graphic&gt;
-    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
-      &lt;pic:pic&gt;
-        &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Tarapacá.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Los Ríos.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
@@ -53169,7 +52994,7 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
-      <c r="Q639" t="inlineStr">
+      <c r="L639" t="inlineStr">
         <is>
           <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
   &lt;wp:extent cx="6400800" cy="5760720"/&gt;
@@ -53181,11 +53006,11 @@
     &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
       &lt;pic:pic&gt;
         &lt;pic:nvPicPr&gt;
-          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Valparaíso.png"/&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Magallanes.png"/&gt;
           &lt;pic:cNvPicPr/&gt;
         &lt;/pic:nvPicPr&gt;
         &lt;pic:blipFill&gt;
-          &lt;a:blip r:embed="rId32"/&gt;
+          &lt;a:blip r:embed="rId33"/&gt;
           &lt;a:stretch&gt;
             &lt;a:fillRect/&gt;
           &lt;/a:stretch&gt;
@@ -53204,1016 +53029,2325 @@
 &lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Maule.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId36"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="5760720"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, la R. Metropolitana.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId39"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="5760720"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, el Ñuble.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId42"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="5760720"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Tarapacá.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId45"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="5760720"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="5760720"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Porcentaje participación por Sector, Valparaíso.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId48"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="5760720"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>caRegCLP</t>
+          <t>secRegAnoGrf</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>$10.201 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Antofagasta.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId3"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>$36.797 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, La Araucanía.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId7"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>$8.745 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Arica y Parinacota.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId10"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>$10.711 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Atacama.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId13"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>$8.948 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Aysén.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId16"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>$41.789 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, el Bío-Bío.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId19"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>$18.691 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Coquimbo.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId22"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>$23.276 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, O'Higgins.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId25"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>$26.982 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Los Lagos.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId28"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>$16.082 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Los Ríos.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId31"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>$8.359 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Magallanes.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId34"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="M640" t="inlineStr">
         <is>
-          <t>$32.410 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, el Maule.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId37"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$139.828 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, la R. Metropolitana.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId40"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>$16.703 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, el Ñuble.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId43"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="P640" t="inlineStr">
         <is>
-          <t>$11.054 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Tarapacá.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId46"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$56.595 millones</t>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="4267200"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Monto por sector cada año, Valparaíso.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId49"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="4267200"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>caRegOC</t>
+          <t>caRegCLP</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>14.254</t>
+          <t>$10.201 millones</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>50.322</t>
+          <t>$36.797 millones</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>12.222</t>
+          <t>$8.745 millones</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>17.079</t>
+          <t>$10.711 millones</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>13.768</t>
+          <t>$8.948 millones</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>62.492</t>
+          <t>$41.789 millones</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>28.616</t>
+          <t>$18.691 millones</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>31.388</t>
+          <t>$23.276 millones</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>41.755</t>
+          <t>$26.982 millones</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>22.660</t>
+          <t>$16.082 millones</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>12.818</t>
+          <t>$8.359 millones</t>
         </is>
       </c>
       <c r="M641" t="inlineStr">
         <is>
-          <t>48.446</t>
+          <t>$32.410 millones</t>
         </is>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>177.612</t>
+          <t>$139.828 millones</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>26.666</t>
+          <t>$16.703 millones</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
         <is>
-          <t>12.354</t>
+          <t>$11.054 millones</t>
         </is>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>83.028</t>
+          <t>$56.595 millones</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>caRegCLPM</t>
+          <t>caRegOC</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>$9.538 millones</t>
+          <t>14.254</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>$30.385 millones</t>
+          <t>50.322</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>$6.483 millones</t>
+          <t>12.222</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>$8.560 millones</t>
+          <t>17.079</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>$7.414 millones</t>
+          <t>13.768</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>$36.334 millones</t>
+          <t>62.492</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>$15.953 millones</t>
+          <t>28.616</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>$20.949 millones</t>
+          <t>31.388</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>$23.203 millones</t>
+          <t>41.755</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>$13.301 millones</t>
+          <t>22.660</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>$7.050 millones</t>
+          <t>12.818</t>
         </is>
       </c>
       <c r="M642" t="inlineStr">
         <is>
-          <t>$27.962 millones</t>
+          <t>48.446</t>
         </is>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$100.255 millones</t>
+          <t>177.612</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>$14.330 millones</t>
+          <t>26.666</t>
         </is>
       </c>
       <c r="P642" t="inlineStr">
         <is>
-          <t>$8.632 millones</t>
+          <t>12.354</t>
         </is>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$43.781 millones</t>
+          <t>83.028</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>caRegOCM</t>
+          <t>caRegCLPM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>13.616</t>
+          <t>$9.538 millones</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>44.326</t>
+          <t>$30.385 millones</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>9.480</t>
+          <t>$6.483 millones</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>14.426</t>
+          <t>$8.560 millones</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>12.417</t>
+          <t>$7.414 millones</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>56.944</t>
+          <t>$36.334 millones</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>25.588</t>
+          <t>$15.953 millones</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>29.628</t>
+          <t>$20.949 millones</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>37.489</t>
+          <t>$23.203 millones</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>19.862</t>
+          <t>$13.301 millones</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>11.790</t>
+          <t>$7.050 millones</t>
         </is>
       </c>
       <c r="M643" t="inlineStr">
         <is>
-          <t>43.932</t>
+          <t>$27.962 millones</t>
         </is>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>139.670</t>
+          <t>$100.255 millones</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>24.389</t>
+          <t>$14.330 millones</t>
         </is>
       </c>
       <c r="P643" t="inlineStr">
         <is>
-          <t>10.338</t>
+          <t>$8.632 millones</t>
         </is>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>68.797</t>
+          <t>$43.781 millones</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>caRegCLPVar</t>
+          <t>caRegOCM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>13.616</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>44.326</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>9.480</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>14.426</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>12.417</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>56.944</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>25.588</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>29.628</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>37.489</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>19.862</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>11.790</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>43.932</t>
         </is>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>139.670</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>24.389</t>
         </is>
       </c>
       <c r="P644" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>10.338</t>
         </is>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>68.797</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>caRegOCDif</t>
+          <t>caRegCLPVar</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>5.996</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>2.742</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>2.653</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>5.548</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>3.028</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>4.266</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>2.798</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="M645" t="inlineStr">
         <is>
-          <t>4.514</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>37.942</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>2.277</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="P645" t="inlineStr">
         <is>
-          <t>2.016</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>14.231</t>
+          <t>29,3%</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>fechaVisita</t>
+          <t>caRegOCDif</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>8 de noviembre</t>
+          <t>638</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>22 de noviembre</t>
+          <t>5.996</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>7 de noviembre</t>
+          <t>2.742</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>8 de noviembre</t>
+          <t>2.653</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>22 de noviembre</t>
+          <t>1.351</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>16 de noviembre</t>
+          <t>5.548</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>6 de noviembre</t>
+          <t>3.028</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>14 de noviembre</t>
+          <t>1.760</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>20 de noviembre</t>
+          <t>4.266</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>30 de noviembre</t>
+          <t>2.798</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>21 de noviembre</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="M646" t="inlineStr">
         <is>
-          <t>14 de noviembre</t>
+          <t>4.514</t>
         </is>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>16, 17 y 20 de noviembre</t>
+          <t>37.942</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>17 de noviembre</t>
+          <t>2.277</t>
         </is>
       </c>
       <c r="P646" t="inlineStr">
         <is>
-          <t>9 de noviembre</t>
+          <t>2.016</t>
         </is>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>13 de noviembre</t>
+          <t>14.231</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>asistentes</t>
-        </is>
-      </c>
-      <c r="B647" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C647" t="n">
-        <v>4530</v>
-      </c>
-      <c r="D647" t="n">
-        <v>12</v>
-      </c>
-      <c r="E647" t="n">
-        <v>78954</v>
-      </c>
-      <c r="F647" t="n">
-        <v>12344</v>
-      </c>
-      <c r="G647" t="n">
-        <v>45</v>
-      </c>
-      <c r="H647" t="n">
-        <v>90000</v>
-      </c>
-      <c r="I647" t="n">
-        <v>9001</v>
-      </c>
-      <c r="J647" t="n">
-        <v>54</v>
-      </c>
-      <c r="K647" t="n">
-        <v>32000</v>
-      </c>
-      <c r="L647" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M647" t="n">
-        <v>23</v>
-      </c>
-      <c r="N647" t="n">
-        <v>43</v>
-      </c>
-      <c r="O647" t="n">
-        <v>4433</v>
-      </c>
-      <c r="P647" t="n">
-        <v>123654</v>
-      </c>
-      <c r="Q647" t="n">
-        <v>33333</v>
+          <t>fechaVisita</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>8 de noviembre</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>22 de noviembre</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>7 de noviembre</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>8 de noviembre</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>22 de noviembre</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>16 de noviembre</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>6 de noviembre</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>14 de noviembre</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>20 de noviembre</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>30 de noviembre</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>21 de noviembre</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>14 de noviembre</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>16, 17 y 20 de noviembre</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>17 de noviembre</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>9 de noviembre</t>
+        </is>
+      </c>
+      <c r="Q647" t="inlineStr">
+        <is>
+          <t>13 de noviembre</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>ano</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="I648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="J648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="N648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="O648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="P648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Q648" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+          <t>asistentes</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C648" t="n">
+        <v>4530</v>
+      </c>
+      <c r="D648" t="n">
+        <v>12</v>
+      </c>
+      <c r="E648" t="n">
+        <v>78954</v>
+      </c>
+      <c r="F648" t="n">
+        <v>12344</v>
+      </c>
+      <c r="G648" t="n">
+        <v>45</v>
+      </c>
+      <c r="H648" t="n">
+        <v>90000</v>
+      </c>
+      <c r="I648" t="n">
+        <v>9001</v>
+      </c>
+      <c r="J648" t="n">
+        <v>54</v>
+      </c>
+      <c r="K648" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L648" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M648" t="n">
+        <v>23</v>
+      </c>
+      <c r="N648" t="n">
+        <v>43</v>
+      </c>
+      <c r="O648" t="n">
+        <v>4433</v>
+      </c>
+      <c r="P648" t="n">
+        <v>123654</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>33333</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>anoM</t>
+          <t>ano</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="P649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>mesI</t>
+          <t>anoM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="M650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="P650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
+          <t>mesI</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="Q651" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
           <t>mesF</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr">
+      <c r="B652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr">
+      <c r="C652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="D651" t="inlineStr">
+      <c r="D652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="E651" t="inlineStr">
+      <c r="E652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="F651" t="inlineStr">
+      <c r="F652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="G651" t="inlineStr">
+      <c r="G652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
+      <c r="H652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="I651" t="inlineStr">
+      <c r="I652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="J651" t="inlineStr">
+      <c r="J652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="K651" t="inlineStr">
+      <c r="K652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="L651" t="inlineStr">
+      <c r="L652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="M651" t="inlineStr">
+      <c r="M652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="N651" t="inlineStr">
+      <c r="N652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="O651" t="inlineStr">
+      <c r="O652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="P651" t="inlineStr">
+      <c r="P652" t="inlineStr">
         <is>
           <t>noviembre</t>
         </is>
       </c>
-      <c r="Q651" t="inlineStr">
+      <c r="Q652" t="inlineStr">
         <is>
           <t>noviembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>secRegNacGrf</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="P653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="Q653" t="inlineStr">
+        <is>
+          <t>&lt;/w:t&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:drawing&gt;&lt;wp:inline xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"&gt;
+  &lt;wp:extent cx="6400800" cy="3482481"/&gt;
+  &lt;wp:docPr id="1" name="Picture 1"/&gt;
+  &lt;wp:cNvGraphicFramePr&gt;
+    &lt;a:graphicFrameLocks noChangeAspect="1"/&gt;
+  &lt;/wp:cNvGraphicFramePr&gt;
+  &lt;a:graphic&gt;
+    &lt;a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/picture"&gt;
+      &lt;pic:pic&gt;
+        &lt;pic:nvPicPr&gt;
+          &lt;pic:cNvPr id="0" name="Sector por región, nivel nacional.png"/&gt;
+          &lt;pic:cNvPicPr/&gt;
+        &lt;/pic:nvPicPr&gt;
+        &lt;pic:blipFill&gt;
+          &lt;a:blip r:embed="rId4"/&gt;
+          &lt;a:stretch&gt;
+            &lt;a:fillRect/&gt;
+          &lt;/a:stretch&gt;
+        &lt;/pic:blipFill&gt;
+        &lt;pic:spPr&gt;
+          &lt;a:xfrm&gt;
+            &lt;a:off x="0" y="0"/&gt;
+            &lt;a:ext cx="6400800" cy="3482481"/&gt;
+          &lt;/a:xfrm&gt;
+          &lt;a:prstGeom prst="rect"/&gt;
+        &lt;/pic:spPr&gt;
+      &lt;/pic:pic&gt;
+    &lt;/a:graphicData&gt;
+  &lt;/a:graphic&gt;
+&lt;/wp:inline&gt;
+&lt;/w:drawing&gt;&lt;/w:r&gt;&lt;w:r&gt;&lt;w:t xml:space="preserve"&gt;</t>
         </is>
       </c>
     </row>
